--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T11:13:22+00:00</t>
+    <t>2021-11-23T15:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T15:36:06+00:00</t>
+    <t>2021-11-23T15:50:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T15:50:17+00:00</t>
+    <t>2021-11-23T16:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T16:28:14+00:00</t>
+    <t>2021-11-23T16:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T16:31:44+00:00</t>
+    <t>2021-11-24T08:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:33:00+00:00</t>
+    <t>2021-11-24T08:49:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:49:16+00:00</t>
+    <t>2021-11-24T08:58:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:58:15+00:00</t>
+    <t>2021-11-24T09:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T09:04:17+00:00</t>
+    <t>2021-11-24T10:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T10:25:52+00:00</t>
+    <t>2021-11-24T11:33:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T11:33:08+00:00</t>
+    <t>2021-11-24T12:31:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T12:31:34+00:00</t>
+    <t>2021-11-24T16:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T16:54:20+00:00</t>
+    <t>2021-11-25T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T10:23:53+00:00</t>
+    <t>2021-11-25T10:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T10:43:38+00:00</t>
+    <t>2021-11-26T11:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T11:10:51+00:00</t>
+    <t>2021-11-26T12:59:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T12:59:35+00:00</t>
+    <t>2021-11-29T15:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ExtendedDispense.xlsx
+++ b/branches/master/StructureDefinition-ExtendedDispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:12:38+00:00</t>
+    <t>2021-11-29T15:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
